--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR006_Employee.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR006_Employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Source\00_UK\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8902C4-309C-498E-B3E0-86C04AEC097A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D9883C-2D6E-4086-AB30-5276006D52CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="914" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="914" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -1974,7 +1974,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2734,6 +2734,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46316,15 +46325,13 @@
   </sheetPr>
   <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="3" width="3.28515625" style="6" customWidth="1"/>
     <col min="4" max="35" width="3.42578125" style="6" customWidth="1"/>
     <col min="36" max="39" width="4.28515625" style="6" customWidth="1"/>
     <col min="40" max="16384" width="3.140625" style="6"/>
@@ -46520,7 +46527,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="3.937007874015748E-2" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;11日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;5&amp;D　&amp;T　
@@ -46535,8 +46542,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AP77"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I6"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="BL63" sqref="BL63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -46879,86 +46886,86 @@
       <c r="AM8" s="39"/>
     </row>
     <row r="9" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="141"/>
-      <c r="AK9" s="141"/>
-      <c r="AL9" s="141"/>
-      <c r="AM9" s="141"/>
+      <c r="A9" s="253"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
+      <c r="O9" s="253"/>
+      <c r="P9" s="253"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="253"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="253"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="253"/>
+      <c r="Z9" s="253"/>
+      <c r="AA9" s="253"/>
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="253"/>
+      <c r="AE9" s="253"/>
+      <c r="AF9" s="253"/>
+      <c r="AG9" s="253"/>
+      <c r="AH9" s="253"/>
+      <c r="AI9" s="253"/>
+      <c r="AJ9" s="253"/>
+      <c r="AK9" s="253"/>
+      <c r="AL9" s="253"/>
+      <c r="AM9" s="253"/>
     </row>
     <row r="10" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="153"/>
-      <c r="AJ10" s="153"/>
-      <c r="AK10" s="153"/>
-      <c r="AL10" s="153"/>
-      <c r="AM10" s="153"/>
+      <c r="A10" s="254"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="254"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="254"/>
+      <c r="W10" s="254"/>
+      <c r="X10" s="254"/>
+      <c r="Y10" s="254"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="254"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="254"/>
+      <c r="AD10" s="254"/>
+      <c r="AE10" s="254"/>
+      <c r="AF10" s="254"/>
+      <c r="AG10" s="254"/>
+      <c r="AH10" s="254"/>
+      <c r="AI10" s="254"/>
+      <c r="AJ10" s="254"/>
+      <c r="AK10" s="254"/>
+      <c r="AL10" s="254"/>
+      <c r="AM10" s="254"/>
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1">
       <c r="A11" s="40"/>
@@ -47357,45 +47364,45 @@
       <c r="AP19" s="13"/>
     </row>
     <row r="20" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="153"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="153"/>
-      <c r="AJ20" s="153"/>
-      <c r="AK20" s="153"/>
-      <c r="AL20" s="153"/>
-      <c r="AM20" s="153"/>
+      <c r="A20" s="254"/>
+      <c r="B20" s="254"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="254"/>
+      <c r="O20" s="254"/>
+      <c r="P20" s="254"/>
+      <c r="Q20" s="254"/>
+      <c r="R20" s="254"/>
+      <c r="S20" s="254"/>
+      <c r="T20" s="254"/>
+      <c r="U20" s="254"/>
+      <c r="V20" s="254"/>
+      <c r="W20" s="254"/>
+      <c r="X20" s="254"/>
+      <c r="Y20" s="254"/>
+      <c r="Z20" s="254"/>
+      <c r="AA20" s="254"/>
+      <c r="AB20" s="254"/>
+      <c r="AC20" s="254"/>
+      <c r="AD20" s="254"/>
+      <c r="AE20" s="254"/>
+      <c r="AF20" s="254"/>
+      <c r="AG20" s="254"/>
+      <c r="AH20" s="254"/>
+      <c r="AI20" s="254"/>
+      <c r="AJ20" s="254"/>
+      <c r="AK20" s="254"/>
+      <c r="AL20" s="254"/>
+      <c r="AM20" s="254"/>
     </row>
     <row r="21" spans="1:42" ht="15" customHeight="1">
       <c r="A21" s="40"/>
@@ -48277,86 +48284,86 @@
       <c r="AM41" s="71"/>
     </row>
     <row r="42" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="153"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
-      <c r="O42" s="153"/>
-      <c r="P42" s="153"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="153"/>
-      <c r="S42" s="153"/>
-      <c r="T42" s="153"/>
-      <c r="U42" s="153"/>
-      <c r="V42" s="153"/>
-      <c r="W42" s="153"/>
-      <c r="X42" s="153"/>
-      <c r="Y42" s="153"/>
-      <c r="Z42" s="153"/>
-      <c r="AA42" s="153"/>
-      <c r="AB42" s="153"/>
-      <c r="AC42" s="153"/>
-      <c r="AD42" s="153"/>
-      <c r="AE42" s="153"/>
-      <c r="AF42" s="153"/>
-      <c r="AG42" s="153"/>
-      <c r="AH42" s="153"/>
-      <c r="AI42" s="153"/>
-      <c r="AJ42" s="153"/>
-      <c r="AK42" s="153"/>
-      <c r="AL42" s="153"/>
-      <c r="AM42" s="153"/>
+      <c r="A42" s="254"/>
+      <c r="B42" s="254"/>
+      <c r="C42" s="254"/>
+      <c r="D42" s="254"/>
+      <c r="E42" s="254"/>
+      <c r="F42" s="254"/>
+      <c r="G42" s="254"/>
+      <c r="H42" s="254"/>
+      <c r="I42" s="254"/>
+      <c r="J42" s="254"/>
+      <c r="K42" s="254"/>
+      <c r="L42" s="254"/>
+      <c r="M42" s="254"/>
+      <c r="N42" s="254"/>
+      <c r="O42" s="254"/>
+      <c r="P42" s="254"/>
+      <c r="Q42" s="254"/>
+      <c r="R42" s="254"/>
+      <c r="S42" s="254"/>
+      <c r="T42" s="254"/>
+      <c r="U42" s="254"/>
+      <c r="V42" s="254"/>
+      <c r="W42" s="254"/>
+      <c r="X42" s="254"/>
+      <c r="Y42" s="254"/>
+      <c r="Z42" s="254"/>
+      <c r="AA42" s="254"/>
+      <c r="AB42" s="254"/>
+      <c r="AC42" s="254"/>
+      <c r="AD42" s="254"/>
+      <c r="AE42" s="254"/>
+      <c r="AF42" s="254"/>
+      <c r="AG42" s="254"/>
+      <c r="AH42" s="254"/>
+      <c r="AI42" s="254"/>
+      <c r="AJ42" s="254"/>
+      <c r="AK42" s="254"/>
+      <c r="AL42" s="254"/>
+      <c r="AM42" s="254"/>
     </row>
     <row r="43" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="172"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="172"/>
-      <c r="T43" s="172"/>
-      <c r="U43" s="172"/>
-      <c r="V43" s="172"/>
-      <c r="W43" s="172"/>
-      <c r="X43" s="172"/>
-      <c r="Y43" s="172"/>
-      <c r="Z43" s="172"/>
-      <c r="AA43" s="172"/>
-      <c r="AB43" s="172"/>
-      <c r="AC43" s="172"/>
-      <c r="AD43" s="172"/>
-      <c r="AE43" s="172"/>
-      <c r="AF43" s="172"/>
-      <c r="AG43" s="172"/>
-      <c r="AH43" s="172"/>
-      <c r="AI43" s="172"/>
-      <c r="AJ43" s="172"/>
-      <c r="AK43" s="172"/>
-      <c r="AL43" s="172"/>
-      <c r="AM43" s="172"/>
+      <c r="A43" s="255"/>
+      <c r="B43" s="255"/>
+      <c r="C43" s="255"/>
+      <c r="D43" s="255"/>
+      <c r="E43" s="255"/>
+      <c r="F43" s="255"/>
+      <c r="G43" s="255"/>
+      <c r="H43" s="255"/>
+      <c r="I43" s="255"/>
+      <c r="J43" s="255"/>
+      <c r="K43" s="255"/>
+      <c r="L43" s="255"/>
+      <c r="M43" s="255"/>
+      <c r="N43" s="255"/>
+      <c r="O43" s="255"/>
+      <c r="P43" s="255"/>
+      <c r="Q43" s="255"/>
+      <c r="R43" s="255"/>
+      <c r="S43" s="255"/>
+      <c r="T43" s="255"/>
+      <c r="U43" s="255"/>
+      <c r="V43" s="255"/>
+      <c r="W43" s="255"/>
+      <c r="X43" s="255"/>
+      <c r="Y43" s="255"/>
+      <c r="Z43" s="255"/>
+      <c r="AA43" s="255"/>
+      <c r="AB43" s="255"/>
+      <c r="AC43" s="255"/>
+      <c r="AD43" s="255"/>
+      <c r="AE43" s="255"/>
+      <c r="AF43" s="255"/>
+      <c r="AG43" s="255"/>
+      <c r="AH43" s="255"/>
+      <c r="AI43" s="255"/>
+      <c r="AJ43" s="255"/>
+      <c r="AK43" s="255"/>
+      <c r="AL43" s="255"/>
+      <c r="AM43" s="255"/>
     </row>
     <row r="44" spans="1:42" ht="15" customHeight="1">
       <c r="A44" s="40"/>
@@ -50994,13 +51001,12 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="6" customWidth="1"/>
+    <col min="1" max="3" width="3.28515625" style="6" customWidth="1"/>
     <col min="4" max="35" width="3.42578125" style="6" customWidth="1"/>
     <col min="36" max="39" width="4.28515625" style="6" customWidth="1"/>
     <col min="40" max="16384" width="3.140625" style="6"/>
@@ -51322,7 +51328,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;14日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;7&amp;D　&amp;T　
@@ -51338,7 +51344,7 @@
   <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -51756,7 +51762,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="0.74803149606299213" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;14日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;7&amp;D　&amp;T　
@@ -51772,14 +51778,12 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="6" customWidth="1"/>
+    <col min="1" max="3" width="3.28515625" style="6" customWidth="1"/>
     <col min="4" max="35" width="3.42578125" style="6" customWidth="1"/>
     <col min="36" max="39" width="4.28515625" style="6" customWidth="1"/>
     <col min="40" max="41" width="3.28515625" style="6" customWidth="1"/>
@@ -51983,7 +51987,6 @@
     <row r="34" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N3:O4"/>
     <mergeCell ref="P3:Q4"/>
     <mergeCell ref="R3:S4"/>
     <mergeCell ref="T3:U4"/>
@@ -52003,9 +52006,10 @@
     <mergeCell ref="AB3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;14日別勤務表&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　
@@ -52021,14 +52025,12 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="6" customWidth="1"/>
+    <col min="1" max="3" width="3.28515625" style="6" customWidth="1"/>
     <col min="4" max="35" width="3.42578125" style="6" customWidth="1"/>
     <col min="36" max="39" width="4.28515625" style="6" customWidth="1"/>
     <col min="40" max="41" width="3.28515625" style="6" customWidth="1"/>
@@ -52350,7 +52352,7 @@
     <mergeCell ref="N5:O6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;11日別勤務表&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;5&amp;D　&amp;T　
@@ -52365,15 +52367,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z30:Z31"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="H1" zoomScale="175" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="6" customWidth="1"/>
+    <col min="1" max="3" width="3.28515625" style="6" customWidth="1"/>
     <col min="4" max="35" width="3.42578125" style="6" customWidth="1"/>
     <col min="36" max="39" width="4.28515625" style="6" customWidth="1"/>
     <col min="40" max="41" width="3.28515625" style="6" customWidth="1"/>
@@ -52792,7 +52792,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;11日別勤務表&amp;R&amp;5ABC</oddHeader>
@@ -52807,7 +52807,7 @@
   <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AM8"/>
+      <selection activeCell="A9" sqref="A9:AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -53147,86 +53147,86 @@
       <c r="AM8" s="39"/>
     </row>
     <row r="9" spans="1:39" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="141"/>
-      <c r="AK9" s="141"/>
-      <c r="AL9" s="141"/>
-      <c r="AM9" s="141"/>
+      <c r="A9" s="253"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
+      <c r="O9" s="253"/>
+      <c r="P9" s="253"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="253"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="253"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="253"/>
+      <c r="Z9" s="253"/>
+      <c r="AA9" s="253"/>
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="253"/>
+      <c r="AE9" s="253"/>
+      <c r="AF9" s="253"/>
+      <c r="AG9" s="253"/>
+      <c r="AH9" s="253"/>
+      <c r="AI9" s="253"/>
+      <c r="AJ9" s="253"/>
+      <c r="AK9" s="253"/>
+      <c r="AL9" s="253"/>
+      <c r="AM9" s="253"/>
     </row>
     <row r="10" spans="1:39" ht="15" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="142"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="142"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="142"/>
-      <c r="AG10" s="142"/>
-      <c r="AH10" s="142"/>
-      <c r="AI10" s="142"/>
-      <c r="AJ10" s="142"/>
-      <c r="AK10" s="142"/>
-      <c r="AL10" s="142"/>
-      <c r="AM10" s="142"/>
+      <c r="A10" s="254"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="254"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="254"/>
+      <c r="W10" s="254"/>
+      <c r="X10" s="254"/>
+      <c r="Y10" s="254"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="254"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="254"/>
+      <c r="AD10" s="254"/>
+      <c r="AE10" s="254"/>
+      <c r="AF10" s="254"/>
+      <c r="AG10" s="254"/>
+      <c r="AH10" s="254"/>
+      <c r="AI10" s="254"/>
+      <c r="AJ10" s="254"/>
+      <c r="AK10" s="254"/>
+      <c r="AL10" s="254"/>
+      <c r="AM10" s="254"/>
     </row>
     <row r="11" spans="1:39" ht="15" customHeight="1">
       <c r="A11" s="40"/>
